--- a/agents/RubiksCube/3x3x3_STICKER2_AT/csv/mRubiks3x3-MWrap[TCL4-p9]-SoftMax-p1-9-EE20.xlsx
+++ b/agents/RubiksCube/3x3x3_STICKER2_AT/csv/mRubiks3x3-MWrap[TCL4-p9]-SoftMax-p1-9-EE20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wolfgang\Documents\GitHub\GBG\agents\RubiksCube\3x3x3_STICKER2_AT\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{927F3185-69D5-4A20-AC76-A5FB1333511A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFE2433-BB16-4CB2-8B0F-A4869D723FE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8592"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mRubiks3x3-MWrap-SoftMax-p1-9" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -905,7 +905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K183"/>
   <sheetViews>
@@ -914,6 +914,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1170,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1485,7 +1488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1800,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -2115,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -2465,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -2500,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -2745,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -3060,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -3375,7 +3378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -3690,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -4040,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -4075,7 +4078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>13</v>
       </c>
@@ -4320,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -4635,7 +4638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>13</v>
       </c>
@@ -4950,7 +4953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>13</v>
       </c>
@@ -5265,7 +5268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>13</v>
       </c>
@@ -5615,7 +5618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>13</v>
       </c>
@@ -5650,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>13</v>
       </c>
@@ -5895,7 +5898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>13</v>
       </c>
@@ -6210,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>13</v>
       </c>
@@ -6525,7 +6528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>13</v>
       </c>
@@ -6840,7 +6843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>13</v>
       </c>
@@ -7190,7 +7193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>13</v>
       </c>
@@ -7225,7 +7228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>13</v>
       </c>
@@ -7261,10 +7264,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:K183">
+  <autoFilter ref="A3:K183" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="1000"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="9">
       <filters>
         <filter val="7"/>
+        <filter val="8"/>
+        <filter val="9"/>
       </filters>
     </filterColumn>
   </autoFilter>
